--- a/matthew-baby-names-093116/matthew-baby-names-093116.xlsx
+++ b/matthew-baby-names-093116/matthew-baby-names-093116.xlsx
@@ -17,12 +17,12 @@
     <t>date</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -50,24 +50,24 @@
     <t>1/1/1885</t>
   </si>
   <si>
+    <t>1/1/1886</t>
+  </si>
+  <si>
+    <t>1/1/1887</t>
+  </si>
+  <si>
+    <t>1/1/1888</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
+    <t>1/1/1889</t>
+  </si>
+  <si>
     <t>% Social Security Card Applications</t>
   </si>
   <si>
-    <t>1/1/1886</t>
-  </si>
-  <si>
-    <t>1/1/1887</t>
-  </si>
-  <si>
-    <t>1/1/1888</t>
-  </si>
-  <si>
-    <t>1/1/1889</t>
-  </si>
-  <si>
     <t>1/1/1890</t>
   </si>
   <si>
@@ -104,193 +104,193 @@
     <t>1/1/1901</t>
   </si>
   <si>
+    <t>1/1/1902</t>
+  </si>
+  <si>
+    <t>1/1/1903</t>
+  </si>
+  <si>
+    <t>1/1/1904</t>
+  </si>
+  <si>
+    <t>1/1/1905</t>
+  </si>
+  <si>
+    <t>1/1/1906</t>
+  </si>
+  <si>
+    <t>1/1/1907</t>
+  </si>
+  <si>
+    <t>1/1/1908</t>
+  </si>
+  <si>
+    <t>1/1/1909</t>
+  </si>
+  <si>
+    <t>1/1/1910</t>
+  </si>
+  <si>
+    <t>1/1/1911</t>
+  </si>
+  <si>
+    <t>1/1/1912</t>
+  </si>
+  <si>
+    <t>1/1/1913</t>
+  </si>
+  <si>
+    <t>1/1/1914</t>
+  </si>
+  <si>
+    <t>1/1/1915</t>
+  </si>
+  <si>
+    <t>1/1/1916</t>
+  </si>
+  <si>
+    <t>1/1/1917</t>
+  </si>
+  <si>
+    <t>1/1/1918</t>
+  </si>
+  <si>
+    <t>1/1/1919</t>
+  </si>
+  <si>
+    <t>1/1/1920</t>
+  </si>
+  <si>
+    <t>1/1/1921</t>
+  </si>
+  <si>
+    <t>1/1/1922</t>
+  </si>
+  <si>
+    <t>1/1/1923</t>
+  </si>
+  <si>
+    <t>1/1/1924</t>
+  </si>
+  <si>
+    <t>1/1/1925</t>
+  </si>
+  <si>
+    <t>1/1/1926</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>1/1/1902</t>
-  </si>
-  <si>
-    <t>1/1/1903</t>
-  </si>
-  <si>
-    <t>1/1/1904</t>
+    <t>1/1/1927</t>
+  </si>
+  <si>
+    <t>1/1/1928</t>
+  </si>
+  <si>
+    <t>1/1/1929</t>
+  </si>
+  <si>
+    <t>1/1/1930</t>
+  </si>
+  <si>
+    <t>1/1/1931</t>
+  </si>
+  <si>
+    <t>1/1/1932</t>
   </si>
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>1/1/1905</t>
+    <t>1/1/1933</t>
   </si>
   <si>
     <t>U.S. Social Security Administration (&lt;a href="https://catalog.data.gov/dataset/baby-names-from-social-security-card-applications-national-level-data"&gt;names&lt;/a&gt;)</t>
   </si>
   <si>
-    <t>1/1/1906</t>
-  </si>
-  <si>
-    <t>1/1/1907</t>
-  </si>
-  <si>
-    <t>1/1/1908</t>
-  </si>
-  <si>
-    <t>1/1/1909</t>
-  </si>
-  <si>
-    <t>1/1/1910</t>
-  </si>
-  <si>
-    <t>1/1/1911</t>
-  </si>
-  <si>
-    <t>1/1/1912</t>
-  </si>
-  <si>
-    <t>1/1/1913</t>
-  </si>
-  <si>
-    <t>1/1/1914</t>
+    <t>1/1/1934</t>
+  </si>
+  <si>
+    <t>1/1/1935</t>
+  </si>
+  <si>
+    <t>1/1/1936</t>
+  </si>
+  <si>
+    <t>1/1/1937</t>
+  </si>
+  <si>
+    <t>1/1/1938</t>
+  </si>
+  <si>
+    <t>1/1/1939</t>
+  </si>
+  <si>
+    <t>1/1/1940</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>1/1/1915</t>
+    <t>1/1/1941</t>
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
-    <t>1/1/1916</t>
-  </si>
-  <si>
-    <t>1/1/1917</t>
-  </si>
-  <si>
-    <t>1/1/1918</t>
-  </si>
-  <si>
-    <t>1/1/1919</t>
-  </si>
-  <si>
-    <t>1/1/1920</t>
-  </si>
-  <si>
-    <t>1/1/1921</t>
-  </si>
-  <si>
-    <t>1/1/1922</t>
-  </si>
-  <si>
-    <t>1/1/1923</t>
-  </si>
-  <si>
-    <t>1/1/1924</t>
+    <t>1/1/1942</t>
+  </si>
+  <si>
+    <t>1/1/1943</t>
+  </si>
+  <si>
+    <t>1/1/1944</t>
+  </si>
+  <si>
+    <t>1/1/1945</t>
+  </si>
+  <si>
+    <t>1/1/1946</t>
+  </si>
+  <si>
+    <t>1/1/1947</t>
+  </si>
+  <si>
+    <t>1/1/1948</t>
+  </si>
+  <si>
+    <t>1/1/1949</t>
+  </si>
+  <si>
+    <t>1/1/1950</t>
+  </si>
+  <si>
+    <t>1/1/1951</t>
+  </si>
+  <si>
+    <t>1/1/1952</t>
+  </si>
+  <si>
+    <t>1/1/1953</t>
+  </si>
+  <si>
+    <t>1/1/1954</t>
+  </si>
+  <si>
+    <t>1/1/1955</t>
+  </si>
+  <si>
+    <t>1/1/1956</t>
+  </si>
+  <si>
+    <t>1/1/1957</t>
   </si>
   <si>
     <t>annotation_label-denver-song</t>
   </si>
   <si>
     <t>1974: John Denver's "Matthew"</t>
-  </si>
-  <si>
-    <t>1/1/1925</t>
-  </si>
-  <si>
-    <t>1/1/1926</t>
-  </si>
-  <si>
-    <t>1/1/1927</t>
-  </si>
-  <si>
-    <t>1/1/1928</t>
-  </si>
-  <si>
-    <t>1/1/1929</t>
-  </si>
-  <si>
-    <t>1/1/1930</t>
-  </si>
-  <si>
-    <t>1/1/1931</t>
-  </si>
-  <si>
-    <t>1/1/1932</t>
-  </si>
-  <si>
-    <t>1/1/1933</t>
-  </si>
-  <si>
-    <t>1/1/1934</t>
-  </si>
-  <si>
-    <t>1/1/1935</t>
-  </si>
-  <si>
-    <t>1/1/1936</t>
-  </si>
-  <si>
-    <t>1/1/1937</t>
-  </si>
-  <si>
-    <t>1/1/1938</t>
-  </si>
-  <si>
-    <t>1/1/1939</t>
-  </si>
-  <si>
-    <t>1/1/1940</t>
-  </si>
-  <si>
-    <t>1/1/1941</t>
-  </si>
-  <si>
-    <t>1/1/1942</t>
-  </si>
-  <si>
-    <t>1/1/1943</t>
-  </si>
-  <si>
-    <t>1/1/1944</t>
-  </si>
-  <si>
-    <t>1/1/1945</t>
-  </si>
-  <si>
-    <t>1/1/1946</t>
-  </si>
-  <si>
-    <t>1/1/1947</t>
-  </si>
-  <si>
-    <t>1/1/1948</t>
-  </si>
-  <si>
-    <t>1/1/1949</t>
-  </si>
-  <si>
-    <t>1/1/1950</t>
-  </si>
-  <si>
-    <t>1/1/1951</t>
-  </si>
-  <si>
-    <t>1/1/1952</t>
-  </si>
-  <si>
-    <t>1/1/1953</t>
-  </si>
-  <si>
-    <t>1/1/1954</t>
-  </si>
-  <si>
-    <t>1/1/1955</t>
-  </si>
-  <si>
-    <t>1/1/1956</t>
-  </si>
-  <si>
-    <t>1/1/1957</t>
   </si>
   <si>
     <t>1/1/1958</t>
@@ -507,12 +507,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -533,36 +528,36 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,15 +568,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +590,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5"/>
@@ -657,10 +655,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -689,7 +687,7 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
@@ -719,10 +717,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -751,10 +749,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -783,10 +781,10 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1072,6 +1070,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,8 +1082,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1149,7 +1150,7 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>0.1011</v>
@@ -1157,7 +1158,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>0.1065</v>
@@ -1165,7 +1166,7 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8">
         <v>0.0943</v>
@@ -1173,7 +1174,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8">
         <v>0.1067</v>
@@ -1277,7 +1278,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
         <v>0.0848</v>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8">
         <v>0.0855</v>
@@ -1293,7 +1294,7 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
         <v>0.0757</v>
@@ -1301,7 +1302,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <v>0.0809</v>
@@ -1309,7 +1310,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8">
         <v>0.1029</v>
@@ -1317,7 +1318,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="8">
         <v>0.0844</v>
@@ -1325,7 +1326,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="8">
         <v>0.0985</v>
@@ -1333,7 +1334,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="8">
         <v>0.0896</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="8">
         <v>0.1014</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8">
         <v>0.0974</v>
@@ -1357,7 +1358,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="8">
         <v>0.0884</v>
@@ -1365,7 +1366,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" s="8">
         <v>0.0958</v>
@@ -1373,7 +1374,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8">
         <v>0.0936</v>
@@ -1381,7 +1382,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="8">
         <v>0.094</v>
@@ -1389,7 +1390,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B38" s="8">
         <v>0.0927</v>
@@ -1397,7 +1398,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B39" s="8">
         <v>0.0931</v>
@@ -1405,7 +1406,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B40" s="8">
         <v>0.095</v>
@@ -1413,7 +1414,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B41" s="8">
         <v>0.0896</v>
@@ -1421,7 +1422,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B42" s="8">
         <v>0.0908</v>
@@ -1429,7 +1430,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B43" s="8">
         <v>0.0831</v>
@@ -1437,7 +1438,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B44" s="8">
         <v>0.0904</v>
@@ -1445,7 +1446,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45" s="8">
         <v>0.0852</v>
@@ -1453,7 +1454,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46" s="8">
         <v>0.0751</v>
@@ -1461,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B47" s="8">
         <v>0.0754</v>
@@ -1469,7 +1470,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B48" s="8">
         <v>0.0697</v>
@@ -1477,7 +1478,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" s="8">
         <v>0.0701</v>
@@ -1485,7 +1486,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B50" s="8">
         <v>0.0708</v>
@@ -1493,7 +1494,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8">
         <v>0.0676</v>
@@ -1501,7 +1502,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B52" s="8">
         <v>0.0599</v>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B53" s="8">
         <v>0.0584</v>
@@ -1517,7 +1518,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B54" s="8">
         <v>0.0673</v>
@@ -1525,7 +1526,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="8">
         <v>0.0586</v>
@@ -1533,7 +1534,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B56" s="8">
         <v>0.059</v>
@@ -1541,7 +1542,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B57" s="8">
         <v>0.0628</v>
@@ -1549,7 +1550,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="8">
         <v>0.0586</v>
@@ -1557,7 +1558,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="8">
         <v>0.0568</v>
@@ -1565,7 +1566,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="8">
         <v>0.0547</v>
@@ -1573,7 +1574,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B61" s="8">
         <v>0.0561</v>
@@ -1581,7 +1582,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B62" s="8">
         <v>0.0574</v>
@@ -1589,7 +1590,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="8">
         <v>0.0594</v>
@@ -1597,7 +1598,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="8">
         <v>0.0609</v>
@@ -1605,7 +1606,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8">
         <v>0.0574</v>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B66" s="8">
         <v>0.0561</v>
@@ -1621,7 +1622,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" s="8">
         <v>0.0543</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" s="8">
         <v>0.0551</v>
@@ -1637,7 +1638,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" s="8">
         <v>0.0571</v>
@@ -1645,7 +1646,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B70" s="8">
         <v>0.0601</v>
@@ -1653,7 +1654,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B71" s="8">
         <v>0.0687</v>
@@ -1661,7 +1662,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" s="8">
         <v>0.0728</v>
@@ -1669,7 +1670,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="8">
         <v>0.0852</v>
@@ -1677,7 +1678,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B74" s="8">
         <v>0.1049</v>
@@ -1685,7 +1686,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="8">
         <v>0.1205</v>
@@ -1693,7 +1694,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" s="8">
         <v>0.1317</v>
@@ -1701,7 +1702,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="8">
         <v>0.1597</v>
@@ -1709,7 +1710,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B78" s="8">
         <v>0.2065</v>
@@ -1717,7 +1718,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" s="8">
         <v>0.2422</v>
